--- a/docs/Data Retrieval Protocol.xlsx
+++ b/docs/Data Retrieval Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\איילה\tcds\פרוייקט\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\איילה\tcds\final version project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F900E-0BDB-4F2A-A3AB-DB09FC0A4FA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BECED8-A2EC-4C8F-9A35-28342508A9C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Retrieval Protocol" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Value Type</t>
   </si>
@@ -179,9 +179,6 @@
     <t>reservations on date</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">visit time </t>
+  </si>
+  <si>
+    <t>day of month</t>
+  </si>
+  <si>
+    <t>air_genre_name</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -795,7 +798,7 @@
     </row>
     <row r="5" spans="1:26" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>43</v>
@@ -903,105 +906,112 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="I26" s="11">
+      <c r="F27" s="11"/>
+      <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>99</v>
       </c>
     </row>
@@ -1015,31 +1025,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C9 C12:C1007</xm:sqref>
+          <xm:sqref>C4:C9 C12:C1008</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D9 D12:D1007</xm:sqref>
+          <xm:sqref>D2:D9 D12:D1008</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E9 E12:E1007</xm:sqref>
+          <xm:sqref>E2:E9 E12:E1008</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1007</xm:sqref>
+          <xm:sqref>L1:L1008</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet2!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1007</xm:sqref>
+          <xm:sqref>K2:K1008</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
